--- a/work/mock_exam_functions-xlsx.xlsx
+++ b/work/mock_exam_functions-xlsx.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ad83bda99cce0ca/Github/ELE-3915/work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="346" documentId="8_{35B174E0-9E3E-4B11-9098-83B43B75D417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6509D299-61F9-4F92-A8D2-14FFBA7AFE05}"/>
+  <xr:revisionPtr revIDLastSave="357" documentId="8_{35B174E0-9E3E-4B11-9098-83B43B75D417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBF4712A-3426-494F-A1FA-C04BB7AFF8C7}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" activeTab="3" xr2:uid="{3AB6B556-A8EB-4BD0-86D1-E06F9E04AEA4}"/>
+    <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" activeTab="4" xr2:uid="{3AB6B556-A8EB-4BD0-86D1-E06F9E04AEA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Function 1" sheetId="1" r:id="rId1"/>
     <sheet name="Function 2" sheetId="3" r:id="rId2"/>
     <sheet name="Function 3" sheetId="4" r:id="rId3"/>
     <sheet name="Function 4" sheetId="5" r:id="rId4"/>
-    <sheet name="e00eb4de3c8a421cba9b8f4cb8546ec" sheetId="2" state="veryHidden" r:id="rId5"/>
+    <sheet name="Function 5" sheetId="6" r:id="rId5"/>
+    <sheet name="e00eb4de3c8a421cba9b8f4cb8546ec" sheetId="2" state="veryHidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="MAKENEGATIVE">_xlfn.LAMBDA(_xlpm.arr, _xlfn.MAP(_xlpm.arr, _xlfn.LAMBDA(_xlpm.x, IF(ISNUMBER(_xlpm.x), -ABS(_xlpm.x), _xlpm.x))))</definedName>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Positive sum</t>
   </si>
@@ -155,6 +156,18 @@
   </si>
   <si>
     <t xml:space="preserve">ignored. </t>
+  </si>
+  <si>
+    <t>Count number of vowels in a text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a text. For the purpose of this exercise, "y" and "Y" are not vowels. If the </t>
+  </si>
+  <si>
+    <t>Make the function COUNTVOWELS(text) that counts the number of vowels in</t>
+  </si>
+  <si>
+    <t>text argument is not a text, return a #VALUE! Error.</t>
   </si>
 </sst>
 </file>
@@ -647,9 +660,9 @@
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,7 +673,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -669,7 +682,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="5" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -680,28 +693,28 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
@@ -712,8 +725,8 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
@@ -724,7 +737,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>9</v>
       </c>
@@ -747,19 +760,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B20)</f>
         <v>=POSSUM(B17:H17)</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" cm="1">
         <f t="array" ref="B20">POSSUM(B17:H17)</f>
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4" t="s">
         <v>3</v>
       </c>
@@ -770,7 +783,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>-3.9792752693841527E-2</v>
       </c>
@@ -784,19 +797,19 @@
         <v>-5.4281654021094639E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B27)</f>
         <v>=POSSUM(B24:E24)</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" cm="1">
         <f t="array" ref="B27">POSSUM(B24:E24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="4" t="s">
         <v>4</v>
       </c>
@@ -807,39 +820,39 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>-2</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B37)</f>
         <v>=POSSUM(B31:B34)</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" cm="1">
         <f t="array" ref="B37">POSSUM(B31:B34)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>9</v>
       </c>
@@ -862,7 +875,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>5</v>
       </c>
@@ -885,7 +898,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>2</v>
       </c>
@@ -908,7 +921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>1</v>
       </c>
@@ -917,7 +930,7 @@
         <v>=POSSUM(B44:B47)</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>2</v>
       </c>
@@ -926,17 +939,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>-2</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>9</v>
       </c>
@@ -959,7 +972,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>5</v>
       </c>
@@ -982,7 +995,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>2</v>
       </c>
@@ -1005,13 +1018,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B54" cm="1">
         <f t="array" ref="B54">POSSUM(B50:H52)</f>
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>9</v>
       </c>
@@ -1025,7 +1038,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B59" cm="1">
         <f t="array" ref="B59">POSSUM(B57:E57)</f>
         <v>3</v>
@@ -1040,13 +1053,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F688DF88-0BD8-467F-B168-307B0B66C64B}">
   <dimension ref="B2:H13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1057,7 +1068,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1066,7 +1077,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="5" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1077,23 +1088,23 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1104,7 +1115,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1114,13 +1125,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786AA61A-2F8B-4338-8E46-8545C7132A5E}">
   <dimension ref="B2:H21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1131,7 +1140,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1140,7 +1149,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="5" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1151,23 +1160,23 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1178,38 +1187,38 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B15)</f>
         <v>=REPEATTEXT("a";10)</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" t="str" cm="1">
         <f t="array" ref="B15">REPEATTEXT("a",10)</f>
         <v>aaaaaaaaaa</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B18)</f>
         <v>=REPEATTEXT("I am John Galt.";4)</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" t="str" cm="1">
         <f t="array" ref="B18">REPEATTEXT("I am John Galt.",4)</f>
         <v>I am John Galt.I am John Galt.I am John Galt.I am John Galt.</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B21)</f>
         <v>=REPEATTEXT("a";0)</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" t="str" cm="1">
         <f t="array" ref="B21">REPEATTEXT("a",0)</f>
         <v/>
@@ -1224,13 +1233,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A008B3-CF2D-4F48-BA67-7CED9AB36172}">
   <dimension ref="B2:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1241,16 +1248,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="5" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1261,28 +1259,28 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1293,8 +1291,8 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" t="str" cm="1">
         <f t="array" ref="B21">REPEATTEXT("a",0)</f>
         <v/>
@@ -1306,14 +1304,67 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C91CD8-6B49-4F70-91B9-46481A766E59}">
+  <dimension ref="B2:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="5" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3567C945-8733-4BCE-A0E6-E2B71F02E8AA}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1">
         <f>SUM(,)</f>
         <v>0</v>
@@ -1335,12 +1386,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>37653</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>DOLLAR(1,0)</f>
         <v>kr 1</v>

--- a/work/mock_exam_functions-xlsx.xlsx
+++ b/work/mock_exam_functions-xlsx.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ad83bda99cce0ca/Github/ELE-3915/work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="357" documentId="8_{35B174E0-9E3E-4B11-9098-83B43B75D417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBF4712A-3426-494F-A1FA-C04BB7AFF8C7}"/>
+  <xr:revisionPtr revIDLastSave="365" documentId="8_{35B174E0-9E3E-4B11-9098-83B43B75D417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D94169DA-27C7-4B87-ACB4-A6D7B0B04209}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" activeTab="4" xr2:uid="{3AB6B556-A8EB-4BD0-86D1-E06F9E04AEA4}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3AB6B556-A8EB-4BD0-86D1-E06F9E04AEA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Function 1" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Positive sum</t>
   </si>
@@ -107,15 +107,6 @@
     <t>returns the sum of the positive elements in the array. The array can be</t>
   </si>
   <si>
-    <t>two-dimensional. It should work even when some of the cells do not contain</t>
-  </si>
-  <si>
-    <t>numbers.</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>Make negative</t>
   </si>
   <si>
@@ -168,6 +159,15 @@
   </si>
   <si>
     <t>text argument is not a text, return a #VALUE! Error.</t>
+  </si>
+  <si>
+    <t>two-dimensional. It should work even when some of the cells do not</t>
+  </si>
+  <si>
+    <t>contain numbers.</t>
+  </si>
+  <si>
+    <t>Examples and tests</t>
   </si>
 </sst>
 </file>
@@ -214,7 +214,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -240,17 +240,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
   </cellXfs>
@@ -258,7 +267,7 @@
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Heading 3" xfId="3" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Title" xfId="1" builtinId="15"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -338,7 +347,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Custom 1">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -346,34 +355,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="F8F8F8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="000000"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="B2B2B2"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="969696"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="808080"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5F5F5F"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4D4D4D"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="5F5F5F"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="919191"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -654,15 +663,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9803DF5C-8A56-48AE-AFD2-FD504D39F3AE}">
-  <dimension ref="B2:H59"/>
+  <dimension ref="B2:H54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -673,16 +682,8 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="5" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -693,30 +694,30 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -725,8 +726,8 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
@@ -737,7 +738,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>9</v>
       </c>
@@ -760,19 +761,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B20)</f>
         <v>=POSSUM(B17:H17)</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" cm="1">
         <f t="array" ref="B20">POSSUM(B17:H17)</f>
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>3</v>
       </c>
@@ -783,7 +784,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>-3.9792752693841527E-2</v>
       </c>
@@ -797,19 +798,19 @@
         <v>-5.4281654021094639E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B27)</f>
         <v>=POSSUM(B24:E24)</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" cm="1">
         <f t="array" ref="B27">POSSUM(B24:E24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>4</v>
       </c>
@@ -820,39 +821,39 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>-2</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B37)</f>
         <v>=POSSUM(B31:B34)</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" cm="1">
         <f t="array" ref="B37">POSSUM(B31:B34)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>9</v>
       </c>
@@ -875,7 +876,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>5</v>
       </c>
@@ -898,7 +899,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>2</v>
       </c>
@@ -921,7 +922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>1</v>
       </c>
@@ -930,7 +931,7 @@
         <v>=POSSUM(B44:B47)</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>2</v>
       </c>
@@ -939,17 +940,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>-2</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>9</v>
       </c>
@@ -972,7 +973,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>5</v>
       </c>
@@ -995,7 +996,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>2</v>
       </c>
@@ -1018,34 +1019,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" cm="1">
         <f t="array" ref="B54">POSSUM(B50:H52)</f>
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B59" cm="1">
-        <f t="array" ref="B59">POSSUM(B57:E57)</f>
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1053,13 +1035,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F688DF88-0BD8-467F-B168-307B0B66C64B}">
   <dimension ref="B2:H13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1068,16 +1052,8 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="5" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1088,25 +1064,25 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1115,7 +1091,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1125,13 +1101,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786AA61A-2F8B-4338-8E46-8545C7132A5E}">
   <dimension ref="B2:H21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1140,16 +1118,8 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="5" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1160,25 +1130,25 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1187,38 +1157,38 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B15)</f>
-        <v>=REPEATTEXT("a";10)</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+        <v>=REPEATTEXT("a",10)</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="str" cm="1">
         <f t="array" ref="B15">REPEATTEXT("a",10)</f>
         <v>aaaaaaaaaa</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B18)</f>
-        <v>=REPEATTEXT("I am John Galt.";4)</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+        <v>=REPEATTEXT("I am John Galt.",4)</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="str" cm="1">
         <f t="array" ref="B18">REPEATTEXT("I am John Galt.",4)</f>
         <v>I am John Galt.I am John Galt.I am John Galt.I am John Galt.</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B21)</f>
-        <v>=REPEATTEXT("a";0)</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+        <v>=REPEATTEXT("a",0)</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="str" cm="1">
         <f t="array" ref="B21">REPEATTEXT("a",0)</f>
         <v/>
@@ -1235,11 +1205,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1248,7 +1218,8 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="5" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1259,30 +1230,30 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1291,8 +1262,8 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="str" cm="1">
         <f t="array" ref="B21">REPEATTEXT("a",0)</f>
         <v/>
@@ -1307,15 +1278,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C91CD8-6B49-4F70-91B9-46481A766E59}">
   <dimension ref="B2:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1324,7 +1295,8 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="5" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1335,20 +1307,20 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1362,9 +1334,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>SUM(,)</f>
         <v>0</v>
@@ -1386,12 +1358,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>37653</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>DOLLAR(1,0)</f>
         <v>kr 1</v>
